--- a/datos/emoji.xlsx
+++ b/datos/emoji.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Emoji_sentiment_ranking" localSheetId="0">Hoja1!$A$1:$L$754</definedName>
+    <definedName name="Emoji_sentiment_ranking" localSheetId="0">Hoja1!$A$1:$L$752</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7523" uniqueCount="3217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7522" uniqueCount="3216">
   <si>
     <t>Char</t>
   </si>
@@ -9683,9 +9683,6 @@
   </si>
   <si>
     <t>CROSS OF LORRAINE</t>
-  </si>
-  <si>
-    <t>© 2015 - Department of Knowledge Technologies</t>
   </si>
 </sst>
 </file>
@@ -10007,10 +10004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L754"/>
+  <dimension ref="A1:L752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A751" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="A752" sqref="A752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36350,11 +36347,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754" t="s">
-        <v>3216</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
